--- a/总结/前端/HTML+CSS.xlsx
+++ b/总结/前端/HTML+CSS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="44040" yWindow="-3980" windowWidth="27780" windowHeight="17540" activeTab="5"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="27780" windowHeight="17540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="2393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="2395">
   <si>
     <t>a</t>
   </si>
@@ -4611,9 +4611,6 @@
   </si>
   <si>
     <t>动画以低速开始和结束。</t>
-  </si>
-  <si>
-    <t>在 cubic-bezier 函数中自己的值。可能的值是从 0 到 1 的数值。</t>
   </si>
   <si>
     <t>cubic-bezier(n,n,n,n)</t>
@@ -9298,6 +9295,78 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>xiang'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steps(number, position)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 cubic-bezier 函数中的值。可能的值是从 0 到 1 的数值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分步显示动画，number为划分的个数，position为显示的动画帧。position为start或end，start时显示结尾帧，end时显示开始帧。</t>
+    <rPh sb="0" eb="1">
+      <t>fen'bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dong'hua</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hua'fen</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ge'shu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>de</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>dong'hua</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zhen</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>jie'wei</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>zhen</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>zhen</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10617,18 +10686,18 @@
         <v>381</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="B77" s="7" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>2064</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="10" t="s">
         <v>2065</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
@@ -10939,28 +11008,28 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B115" s="7" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C115" s="43" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B116" s="7"/>
       <c r="C116" s="44" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D116" s="43" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B117" s="7"/>
       <c r="C117" s="44" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D117" s="43" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
@@ -11281,7 +11350,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B157" s="41" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>126</v>
@@ -11300,7 +11369,7 @@
         <v>129</v>
       </c>
       <c r="D159" s="41" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
@@ -11332,7 +11401,7 @@
         <v>18</v>
       </c>
       <c r="E163" s="41" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
@@ -13716,7 +13785,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -13732,13 +13801,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B150" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>1304</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
@@ -13746,10 +13815,10 @@
         <v>1131</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>1306</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
@@ -13760,7 +13829,7 @@
         <v>1154</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
@@ -13773,48 +13842,48 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B154" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>1311</v>
-      </c>
       <c r="D154" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C155" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B156" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>1314</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>1332</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B158" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>933</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
@@ -13827,55 +13896,55 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B160" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>1337</v>
-      </c>
       <c r="D160" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C161" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C162" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C163" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C164" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B165" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>1343</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B166" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>1346</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
@@ -13888,18 +13957,18 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B168" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>1311</v>
-      </c>
       <c r="D168" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C169" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
@@ -13910,7 +13979,7 @@
         <v>1009</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
@@ -13921,7 +13990,7 @@
         <v>1083</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
@@ -13932,12 +14001,12 @@
         <v>1101</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D173" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
@@ -13948,12 +14017,12 @@
         <v>1016</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D175" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
@@ -13964,7 +14033,7 @@
         <v>129</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.15">
@@ -13972,7 +14041,7 @@
         <v>130</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.15">
@@ -13983,12 +14052,12 @@
         <v>1018</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D179" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.15">
@@ -13999,7 +14068,7 @@
         <v>13</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.15">
@@ -14007,7 +14076,7 @@
         <v>15</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.15">
@@ -14036,7 +14105,7 @@
         <v>1040</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.15">
@@ -14047,13 +14116,13 @@
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B187" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="2" t="s">
         <v>1359</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.15">
@@ -14064,15 +14133,15 @@
         <v>402</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C189" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.15">
@@ -14083,53 +14152,53 @@
         <v>402</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C191" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B192" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>1366</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B193" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>1369</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D194" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B195" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>216</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
@@ -14140,18 +14209,18 @@
         <v>336</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B197" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
@@ -14162,7 +14231,7 @@
         <v>1040</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
@@ -14183,34 +14252,34 @@
         <v>114</v>
       </c>
       <c r="C201" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>1378</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>1380</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B203" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>1383</v>
-      </c>
       <c r="D203" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C204" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
@@ -14218,7 +14287,7 @@
         <v>329</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
@@ -14230,7 +14299,7 @@
         <v>1009</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
@@ -14242,7 +14311,7 @@
         <v>1160</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
@@ -14254,19 +14323,19 @@
         <v>402</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="2"/>
       <c r="B209" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>216</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
@@ -14278,25 +14347,25 @@
         <v>336</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="2"/>
       <c r="B211" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>1393</v>
-      </c>
       <c r="D211" s="2" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="2"/>
       <c r="C212" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
@@ -14304,7 +14373,7 @@
         <v>292</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
@@ -14315,7 +14384,7 @@
         <v>1009</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
@@ -14326,7 +14395,7 @@
         <v>1160</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
@@ -14337,12 +14406,12 @@
         <v>336</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>404</v>
@@ -14350,13 +14419,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B218" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>1398</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
@@ -14369,13 +14438,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B220" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>1400</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
@@ -14383,7 +14452,7 @@
         <v>1142</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
@@ -14399,7 +14468,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="6" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B223" s="14"/>
       <c r="C223" s="5"/>
@@ -14407,42 +14476,42 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B224" s="12" t="s">
         <v>1317</v>
-      </c>
-      <c r="B224" s="12" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="42" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B225" s="12" t="s">
         <v>1319</v>
-      </c>
-      <c r="B225" s="12" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B226" s="12" t="s">
         <v>1321</v>
-      </c>
-      <c r="B226" s="12" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B227" s="12" t="s">
         <v>1323</v>
-      </c>
-      <c r="B227" s="12" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B228" s="12" t="s">
         <v>1325</v>
-      </c>
-      <c r="B228" s="12" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
@@ -14450,23 +14519,23 @@
         <v>210</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B230" s="12" t="s">
         <v>1328</v>
-      </c>
-      <c r="B230" s="12" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B231" s="12" t="s">
         <v>1330</v>
-      </c>
-      <c r="B231" s="12" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
@@ -14555,7 +14624,7 @@
         <v>388</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14566,7 +14635,7 @@
         <v>92</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14577,7 +14646,7 @@
         <v>390</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14588,7 +14657,7 @@
         <v>216</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14617,7 +14686,7 @@
         <v>395</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14628,7 +14697,7 @@
         <v>395</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -14662,7 +14731,7 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="48" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
   </sheetData>
@@ -14690,7 +14759,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -14708,31 +14777,31 @@
         <v>985</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2115</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2116</v>
-      </c>
       <c r="C4" s="45" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="42" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>986</v>
@@ -14748,7 +14817,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="42" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>989</v>
@@ -14756,26 +14825,26 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="42" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="42" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>987</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="42" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>988</v>
@@ -14783,10 +14852,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="42" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -14798,147 +14867,147 @@
     </row>
     <row r="14" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="42" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>982</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>983</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="42" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>984</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="42" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>2144</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>2158</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>2145</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="42" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="42" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C21" s="46" t="s">
         <v>2215</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>2216</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="42" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C22" s="42" t="s">
         <v>2136</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>2139</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>2137</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="42" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A24" s="42" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="42" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="42" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>2148</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>2140</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>2149</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -14950,18 +15019,18 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="42" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>2152</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>2153</v>
-      </c>
       <c r="C29" s="42" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="42" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>981</v>
@@ -14969,26 +15038,26 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="42" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="42" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>2154</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="42" t="s">
         <v>2155</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>2156</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="42" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>980</v>
@@ -14996,35 +15065,35 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="42" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="42" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="42" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>2168</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>2169</v>
-      </c>
       <c r="C36" s="42" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -15037,7 +15106,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="42" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>979</v>
@@ -15045,541 +15114,541 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="42" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="42" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="42" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="42" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>2189</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>2188</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="29" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="47" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="47" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="47" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B65" s="47" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B69" s="47" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B70" s="47" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B71" s="47" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B72" s="47" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="47" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B76" s="47" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="47" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="29" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>2196</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>2249</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>2197</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="29" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B83" s="47" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="29" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="5"/>
     </row>
     <row r="85" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A85" s="42" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C86" s="42" t="s">
         <v>2129</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C86" s="42" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B91" s="47" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B94" s="47" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>2099</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>2100</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
     <row r="98" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
   </sheetData>
@@ -15809,7 +15878,7 @@
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="47" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>447</v>
@@ -16003,7 +16072,7 @@
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="47" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>455</v>
@@ -17683,7 +17752,7 @@
     <row r="248" spans="1:4" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A248" s="3"/>
       <c r="B248" s="49" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="C248" s="12" t="s">
         <v>814</v>
@@ -18272,7 +18341,7 @@
     </row>
     <row r="316" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A316" s="47" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B316" s="12" t="s">
         <v>897</v>
@@ -18403,7 +18472,7 @@
     </row>
     <row r="332" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A332" s="47" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B332" s="12" t="s">
         <v>900</v>
@@ -18558,7 +18627,7 @@
     </row>
     <row r="351" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A351" s="47" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B351" s="12" t="s">
         <v>930</v>
@@ -18742,7 +18811,7 @@
     </row>
     <row r="374" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A374" s="5" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B374" s="14"/>
       <c r="C374" s="14"/>
@@ -18752,7 +18821,7 @@
         <v>252</v>
       </c>
       <c r="B375" s="35" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C375" s="12"/>
     </row>
@@ -18770,7 +18839,7 @@
     </row>
     <row r="378" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B378" s="35" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C378" s="12"/>
     </row>
@@ -18779,15 +18848,15 @@
         <v>465</v>
       </c>
       <c r="C379" s="12" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="380" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B380" s="12" t="s">
         <v>1557</v>
-      </c>
-      <c r="B380" s="12" t="s">
-        <v>1558</v>
       </c>
       <c r="C380" s="12"/>
     </row>
@@ -18796,15 +18865,15 @@
         <v>481</v>
       </c>
       <c r="C381" s="12" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="382" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B382" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C382" s="35" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="383" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18812,15 +18881,15 @@
         <v>465</v>
       </c>
       <c r="C383" s="12" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="384" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B384" s="12" t="s">
         <v>1559</v>
-      </c>
-      <c r="B384" s="12" t="s">
-        <v>1560</v>
       </c>
       <c r="C384" s="12"/>
     </row>
@@ -18829,15 +18898,15 @@
         <v>481</v>
       </c>
       <c r="C385" s="12" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="386" spans="1:3" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="B386" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C386" s="35" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="387" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18845,15 +18914,15 @@
         <v>465</v>
       </c>
       <c r="C387" s="12" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="388" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B388" s="12" t="s">
         <v>1561</v>
-      </c>
-      <c r="B388" s="12" t="s">
-        <v>1562</v>
       </c>
       <c r="C388" s="12"/>
     </row>
@@ -18862,15 +18931,15 @@
         <v>481</v>
       </c>
       <c r="C389" s="12" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="390" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B390" s="12" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C390" s="35" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="391" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18878,40 +18947,40 @@
         <v>465</v>
       </c>
       <c r="C391" s="12" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="392" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A392" s="5" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B392" s="14"/>
       <c r="C392" s="14"/>
     </row>
     <row r="393" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B393" s="12" t="s">
         <v>1579</v>
-      </c>
-      <c r="B393" s="12" t="s">
-        <v>1580</v>
       </c>
       <c r="C393" s="12"/>
     </row>
     <row r="394" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B394" s="12" t="s">
         <v>1581</v>
-      </c>
-      <c r="B394" s="12" t="s">
-        <v>1582</v>
       </c>
       <c r="C394" s="12"/>
     </row>
     <row r="395" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B395" s="12" t="s">
         <v>1583</v>
-      </c>
-      <c r="B395" s="12" t="s">
-        <v>1584</v>
       </c>
       <c r="C395" s="12"/>
     </row>
@@ -18920,23 +18989,23 @@
         <v>152</v>
       </c>
       <c r="C396" s="12" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="397" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B397" s="12" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C397" s="12" t="s">
         <v>1590</v>
-      </c>
-      <c r="C397" s="12" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="398" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B398" s="12" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C398" s="12" t="s">
         <v>1592</v>
-      </c>
-      <c r="C398" s="12" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="399" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18944,7 +19013,7 @@
         <v>429</v>
       </c>
       <c r="C399" s="12" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="400" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18952,7 +19021,7 @@
         <v>428</v>
       </c>
       <c r="C400" s="12" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="401" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18960,15 +19029,15 @@
         <v>465</v>
       </c>
       <c r="C401" s="12" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="402" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B402" s="12" t="s">
         <v>1585</v>
-      </c>
-      <c r="B402" s="12" t="s">
-        <v>1586</v>
       </c>
       <c r="C402" s="12"/>
     </row>
@@ -18977,15 +19046,15 @@
         <v>152</v>
       </c>
       <c r="C403" s="12" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="404" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B404" s="12" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C404" s="12" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="405" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18993,34 +19062,34 @@
         <v>465</v>
       </c>
       <c r="C405" s="12" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="406" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B406" s="12" t="s">
         <v>1587</v>
-      </c>
-      <c r="B406" s="12" t="s">
-        <v>1588</v>
       </c>
       <c r="C406" s="12"/>
     </row>
     <row r="407" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A407" s="21" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B407" s="14"/>
       <c r="C407" s="14"/>
     </row>
     <row r="408" spans="1:3" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A408" s="22" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B408" s="35" t="s">
         <v>1930</v>
       </c>
-      <c r="B408" s="35" t="s">
-        <v>1931</v>
-      </c>
       <c r="C408" s="10" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -19029,7 +19098,7 @@
         <v>1090</v>
       </c>
       <c r="C409" s="10" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="84" x14ac:dyDescent="0.15">
@@ -19037,31 +19106,31 @@
         <v>1091</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B411" s="10" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A412" s="20" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C412" s="25" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A413" s="20" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C413" s="25" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.15">
@@ -19086,10 +19155,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D522"/>
+  <dimension ref="A1:D523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -19102,49 +19171,49 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1413</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>1415</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>1405</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>1403</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -19152,7 +19221,7 @@
         <v>470</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -19160,23 +19229,23 @@
         <v>471</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>1407</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>1411</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -19184,7 +19253,7 @@
         <v>481</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -19192,15 +19261,15 @@
         <v>211</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>1893</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -19208,7 +19277,7 @@
         <v>402</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -19216,23 +19285,23 @@
         <v>471</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" s="9" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>1432</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -19240,7 +19309,7 @@
         <v>402</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -19248,7 +19317,7 @@
         <v>471</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -19256,15 +19325,15 @@
         <v>152</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -19277,79 +19346,79 @@
         <v>402</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>1409</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" s="9" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>1424</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>1426</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B27" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>1428</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>1418</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" s="9" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>1438</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>1440</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>1442</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" s="9" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -19357,7 +19426,7 @@
         <v>445</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -19365,12 +19434,12 @@
         <v>673</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -19378,76 +19447,76 @@
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>1283</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>1284</v>
       </c>
       <c r="C36" s="12"/>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="12" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>1289</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="12" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>1291</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="12" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>1293</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>1285</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>1286</v>
       </c>
       <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="12" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="12" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="12" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>1287</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>1288</v>
       </c>
       <c r="C44" s="12"/>
     </row>
@@ -19456,254 +19525,254 @@
         <v>470</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="B46" s="12" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B47" s="12" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="12" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C49" s="12"/>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B50" s="10" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>2014</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>2015</v>
       </c>
       <c r="C52" s="35"/>
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="10" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="10" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D54" s="51"/>
     </row>
     <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="10" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D55" s="50" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="B56" s="10" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D56" s="51"/>
     </row>
     <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="36" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="35" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="35" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C60" s="35" t="s">
         <v>1957</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="35"/>
       <c r="C61" s="35" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>1959</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B62" s="35"/>
       <c r="C62" s="35" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>1961</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="22" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>1955</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="35"/>
       <c r="C64" s="35" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>1945</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>1946</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="35"/>
       <c r="C65" s="35" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>1947</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="35"/>
       <c r="C66" s="35" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>1949</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="35"/>
       <c r="C67" s="35" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>1951</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>1952</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="35" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="35" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="35" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C70" s="35" t="s">
         <v>1953</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>1954</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="36" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B71" s="35" t="s">
         <v>1964</v>
-      </c>
-      <c r="B71" s="35" t="s">
-        <v>1965</v>
       </c>
       <c r="C71" s="12"/>
     </row>
     <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="35" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C72" s="35" t="s">
         <v>1966</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>1967</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="35" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C73" s="35" t="s">
         <v>1968</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>1969</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="21" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -19711,10 +19780,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>1725</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
@@ -19722,55 +19791,55 @@
         <v>807</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B77" s="9" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>1767</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B78" s="9" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>1769</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>1727</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B80" s="9" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>1438</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B81" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>1440</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B82" s="9" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -19778,15 +19847,15 @@
         <v>445</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>1731</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -19794,31 +19863,31 @@
         <v>467</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B86" s="25" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C86" s="25" t="s">
         <v>1780</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B87" s="25" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C87" s="25" t="s">
         <v>1782</v>
-      </c>
-      <c r="C87" s="25" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>1733</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -19826,30 +19895,30 @@
         <v>467</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B90" s="25" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C90" s="25" t="s">
         <v>1785</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="21" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="37" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C92" s="34"/>
     </row>
@@ -19858,194 +19927,194 @@
         <v>481</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="12" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B95" s="12" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B96" s="34" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="97" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B97" s="12" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="98" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B98" s="12" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="99" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B99" s="12" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="100" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B100" s="12" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="101" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B101" s="12" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="102" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="34" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="103" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B103" s="34" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="104" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B104" s="12" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="105" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B105" s="12" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="106" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B106" s="34" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="107" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B107" s="34" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="108" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B108" s="12" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="109" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B109" s="12" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="110" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B110" s="12" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="111" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B111" s="12" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="112" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B112" s="12" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B113" s="12" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B114" s="34" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C114" s="34" t="s">
         <v>2041</v>
-      </c>
-      <c r="C114" s="34" t="s">
-        <v>2042</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="37" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B115" s="34" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C115" s="34" t="s">
         <v>2062</v>
-      </c>
-      <c r="C115" s="34" t="s">
-        <v>2063</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B116" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>1806</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -20080,10 +20149,10 @@
     </row>
     <row r="122" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B122" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>1808</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="123" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -20118,10 +20187,10 @@
     </row>
     <row r="128" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B128" s="12" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C128" s="12" t="s">
         <v>1810</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="129" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -20132,10 +20201,10 @@
     </row>
     <row r="130" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="37" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C130" s="12"/>
     </row>
@@ -20144,7 +20213,7 @@
         <v>825</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="132" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -20152,40 +20221,40 @@
         <v>210</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="133" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="37" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C133" s="12"/>
     </row>
     <row r="134" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B134" s="12" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C134" s="12" t="s">
         <v>1812</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="135" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B135" s="12" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C135" s="12" t="s">
         <v>1814</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="136" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A136" s="37" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C136" s="12"/>
     </row>
@@ -20194,7 +20263,7 @@
         <v>402</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="138" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -20202,24 +20271,24 @@
         <v>481</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="139" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="37" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C139" s="12"/>
     </row>
     <row r="140" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B140" s="12" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="141" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -20254,10 +20323,10 @@
     </row>
     <row r="146" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B146" s="12" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="147" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -20292,25 +20361,25 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="5" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="30" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B153" s="31" t="s">
         <v>2025</v>
-      </c>
-      <c r="B153" s="31" t="s">
-        <v>2026</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>1823</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
@@ -20318,31 +20387,31 @@
         <v>481</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B156" s="9" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B157" s="9" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C157" s="9" t="s">
         <v>1833</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B158" s="9" t="s">
         <v>1825</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
@@ -20350,20 +20419,20 @@
         <v>1250</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C160" s="9" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>1827</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -20371,7 +20440,7 @@
         <v>1252</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -20379,7 +20448,7 @@
         <v>1254</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -20387,7 +20456,7 @@
         <v>1256</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -20395,7 +20464,7 @@
         <v>1258</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -20403,23 +20472,23 @@
         <v>1260</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B167" s="9" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B168" s="9" t="s">
         <v>1829</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -20427,7 +20496,7 @@
         <v>1250</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="170" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -20466,7 +20535,7 @@
         <v>1228</v>
       </c>
       <c r="C174" s="34" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="175" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -20562,2600 +20631,2607 @@
     </row>
     <row r="186" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B186" s="12" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="B187" s="12" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C188" s="12"/>
+    </row>
+    <row r="189" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B189" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C189" s="12" t="s">
         <v>1263</v>
       </c>
-      <c r="C186" s="12" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B187" s="12" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C187" s="12"/>
-    </row>
-    <row r="188" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B188" s="2" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="1" t="s">
+    </row>
+    <row r="190" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="B189" s="12" t="s">
+      <c r="B190" s="12" t="s">
         <v>1238</v>
       </c>
-      <c r="C189" s="12"/>
-    </row>
-    <row r="190" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B190" s="12" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C190" s="12" t="s">
-        <v>1267</v>
-      </c>
+      <c r="C190" s="12"/>
     </row>
     <row r="191" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B191" s="12" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="12" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C192" s="12" t="s">
         <v>1268</v>
       </c>
-      <c r="C191" s="12" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="1" t="s">
+    </row>
+    <row r="193" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="B192" s="12" t="s">
+      <c r="B193" s="12" t="s">
         <v>1240</v>
       </c>
-      <c r="C192" s="12"/>
-    </row>
-    <row r="193" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C193" s="12" t="s">
-        <v>1270</v>
-      </c>
+      <c r="C193" s="12"/>
     </row>
     <row r="194" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B194" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="12" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C195" s="12" t="s">
         <v>1271</v>
       </c>
-      <c r="C194" s="12" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="1" t="s">
+    </row>
+    <row r="196" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="B195" s="12" t="s">
+      <c r="B196" s="12" t="s">
         <v>1242</v>
       </c>
-      <c r="C195" s="12"/>
-    </row>
-    <row r="196" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B196" s="12" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C196" s="12" t="s">
-        <v>1274</v>
-      </c>
+      <c r="C196" s="12"/>
     </row>
     <row r="197" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B197" s="12" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="12" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C198" s="12" t="s">
         <v>1275</v>
       </c>
-      <c r="C197" s="12" t="s">
+    </row>
+    <row r="199" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C199" s="12"/>
+    </row>
+    <row r="200" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B200" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C200" s="12" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="198" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B198" s="12" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C198" s="12"/>
-    </row>
-    <row r="199" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B199" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="C199" s="12" t="s">
+    <row r="201" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B201" s="12" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B200" s="12" t="s">
+      <c r="C201" s="12" t="s">
         <v>1278</v>
       </c>
-      <c r="C200" s="12" t="s">
+    </row>
+    <row r="202" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B202" s="35" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C202" s="12" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B201" s="35" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C201" s="12" t="s">
+    <row r="203" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B203" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="C203" s="12" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="202" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B202" s="12" t="s">
-        <v>849</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="29" t="s">
+    <row r="204" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="29" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B204" s="14" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C204" s="14"/>
+    </row>
+    <row r="205" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B205" s="12"/>
+      <c r="C205" s="12"/>
+    </row>
+    <row r="206" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="1" t="s">
         <v>2316</v>
       </c>
-      <c r="B203" s="14" t="s">
-        <v>2318</v>
-      </c>
-      <c r="C203" s="14"/>
-    </row>
-    <row r="204" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="7" t="s">
-        <v>2359</v>
-      </c>
-      <c r="B204" s="12"/>
-      <c r="C204" s="12"/>
-    </row>
-    <row r="205" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="1" t="s">
-        <v>2317</v>
-      </c>
-      <c r="B205" s="12" t="s">
-        <v>2329</v>
-      </c>
-      <c r="C205" s="12"/>
-    </row>
-    <row r="206" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B206" s="12" t="s">
-        <v>2319</v>
-      </c>
-      <c r="C206" s="12" t="s">
-        <v>2320</v>
-      </c>
+        <v>2328</v>
+      </c>
+      <c r="C206" s="12"/>
     </row>
     <row r="207" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B207" s="12" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="208" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B208" s="12" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="209" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B209" s="12" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C209" s="12" t="s">
         <v>2324</v>
       </c>
-      <c r="C209" s="12" t="s">
+    </row>
+    <row r="210" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B210" s="12" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="1" t="s">
         <v>2326</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="1" t="s">
+      <c r="B211" s="12" t="s">
         <v>2327</v>
       </c>
-      <c r="B210" s="12" t="s">
-        <v>2328</v>
-      </c>
-      <c r="C210" s="12"/>
-    </row>
-    <row r="211" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B211" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="C211" s="12" t="s">
-        <v>2332</v>
-      </c>
+      <c r="C211" s="12"/>
     </row>
     <row r="212" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B212" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B213" s="12" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B214" t="s">
         <v>2330</v>
       </c>
-      <c r="C212" s="12" t="s">
+      <c r="C214" s="12" t="s">
         <v>2333</v>
       </c>
     </row>
-    <row r="213" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B213" t="s">
-        <v>2331</v>
-      </c>
-      <c r="C213" s="12" t="s">
+    <row r="215" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A215" s="1" t="s">
         <v>2334</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A214" s="1" t="s">
+      <c r="B215" s="12" t="s">
         <v>2335</v>
       </c>
-      <c r="B214" s="12" t="s">
+      <c r="C215" t="s">
         <v>2336</v>
       </c>
-      <c r="C214" t="s">
+    </row>
+    <row r="216" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="1" t="s">
         <v>2337</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="1" t="s">
+      <c r="B216" s="12" t="s">
         <v>2338</v>
       </c>
-      <c r="B215" s="12" t="s">
-        <v>2339</v>
-      </c>
-      <c r="C215" s="12"/>
-    </row>
-    <row r="216" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B216" s="12" t="s">
-        <v>2340</v>
-      </c>
-      <c r="C216" s="12" t="s">
-        <v>2345</v>
-      </c>
+      <c r="C216" s="12"/>
     </row>
     <row r="217" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B217" s="12" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="218" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B218" s="12" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="219" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B219" s="12" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B220" s="12" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B221" s="12" t="s">
         <v>2343</v>
       </c>
-      <c r="C219" s="12" t="s">
+      <c r="C221" s="12" t="s">
         <v>2348</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B220" s="12" t="s">
-        <v>2344</v>
-      </c>
-      <c r="C220" s="12" t="s">
+    <row r="222" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="1" t="s">
         <v>2349</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="1" t="s">
+      <c r="B222" s="12" t="s">
         <v>2350</v>
       </c>
-      <c r="B221" s="12" t="s">
-        <v>2351</v>
-      </c>
-      <c r="C221" s="12"/>
-    </row>
-    <row r="222" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B222" s="12" t="s">
-        <v>2352</v>
-      </c>
-      <c r="C222" s="12" t="s">
-        <v>2354</v>
-      </c>
+      <c r="C222" s="12"/>
     </row>
     <row r="223" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B223" s="12" t="s">
-        <v>2342</v>
+        <v>2351</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="224" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B224" s="12" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="225" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B225" s="12" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="226" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B226" s="12" t="s">
-        <v>2353</v>
+        <v>2340</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A227" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B227" s="12" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A228" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B228" s="12" t="s">
         <v>2360</v>
       </c>
-      <c r="B227" s="12" t="s">
-        <v>2361</v>
-      </c>
-      <c r="C227" s="12"/>
-    </row>
-    <row r="228" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B228" s="12" t="s">
-        <v>2352</v>
-      </c>
-      <c r="C228" s="12" t="s">
-        <v>2365</v>
-      </c>
+      <c r="C228" s="12"/>
     </row>
     <row r="229" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B229" s="12" t="s">
-        <v>2362</v>
+        <v>2351</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="230" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B230" s="12" t="s">
-        <v>2340</v>
+        <v>2361</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="231" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B231" s="12" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="232" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B232" s="12" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B233" s="12" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C233" s="12" t="s">
         <v>2363</v>
       </c>
-      <c r="C233" s="12" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="1" t="s">
-        <v>2370</v>
-      </c>
-      <c r="B234" s="12"/>
-      <c r="C234" s="12"/>
+    </row>
+    <row r="234" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B234" s="12" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>2368</v>
+      </c>
     </row>
     <row r="235" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B235" s="12"/>
+      <c r="C235" s="12"/>
+    </row>
+    <row r="236" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B236" s="12" t="s">
         <v>2371</v>
       </c>
-      <c r="B235" s="12" t="s">
+      <c r="C236" s="12"/>
+    </row>
+    <row r="237" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B237" s="12" t="s">
         <v>2372</v>
       </c>
-      <c r="C235" s="12"/>
-    </row>
-    <row r="236" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B236" s="12" t="s">
+      <c r="C237" s="12" t="s">
         <v>2373</v>
       </c>
-      <c r="C236" s="12" t="s">
+    </row>
+    <row r="238" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A238" s="1" t="s">
         <v>2374</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A237" s="1" t="s">
+      <c r="B238" s="12" t="s">
         <v>2375</v>
       </c>
-      <c r="B237" s="12" t="s">
+      <c r="C238" s="12"/>
+    </row>
+    <row r="239" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B239" s="12" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C239" s="12" t="s">
         <v>2376</v>
       </c>
-      <c r="C237" s="12"/>
-    </row>
-    <row r="238" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B238" s="12" t="s">
-        <v>2373</v>
-      </c>
-      <c r="C238" s="12" t="s">
+    </row>
+    <row r="240" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A240" s="1" t="s">
         <v>2377</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A239" s="1" t="s">
+      <c r="B240" s="12" t="s">
         <v>2378</v>
       </c>
-      <c r="B239" s="12" t="s">
+      <c r="C240" s="12"/>
+    </row>
+    <row r="241" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B241" s="12" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C241" s="12" t="s">
         <v>2379</v>
       </c>
-      <c r="C239" s="12"/>
-    </row>
-    <row r="240" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B240" s="12" t="s">
+    </row>
+    <row r="242" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B242" s="12" t="s">
         <v>2382</v>
       </c>
-      <c r="C240" s="12" t="s">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="1" t="s">
-        <v>2381</v>
-      </c>
-      <c r="B241" s="12" t="s">
-        <v>2383</v>
-      </c>
-      <c r="C241" s="12"/>
-    </row>
-    <row r="242" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B242" s="12" t="s">
-        <v>2385</v>
-      </c>
-      <c r="C242" s="12" t="s">
-        <v>2386</v>
-      </c>
+      <c r="C242" s="12"/>
     </row>
     <row r="243" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B243" s="12" t="s">
-        <v>2373</v>
+        <v>2384</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="244" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A244" s="1" t="s">
-        <v>2387</v>
-      </c>
       <c r="B244" s="12" t="s">
-        <v>2388</v>
-      </c>
-      <c r="C244" s="12"/>
+        <v>2372</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>2383</v>
+      </c>
     </row>
     <row r="245" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C245" s="12"/>
+    </row>
+    <row r="246" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A246" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B246" s="12" t="s">
         <v>2389</v>
       </c>
-      <c r="B245" s="12" t="s">
+      <c r="C246" s="12"/>
+    </row>
+    <row r="247" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B247" s="12" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C247" s="12" t="s">
         <v>2390</v>
       </c>
-      <c r="C245" s="12"/>
-    </row>
-    <row r="246" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B246" s="12" t="s">
-        <v>2385</v>
-      </c>
-      <c r="C246" s="12" t="s">
+    </row>
+    <row r="248" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B248" s="12" t="s">
         <v>2391</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B247" s="12" t="s">
-        <v>2392</v>
-      </c>
-      <c r="C247" s="12"/>
-    </row>
-    <row r="248" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="21" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B248" s="14"/>
-      <c r="C248" s="14"/>
-    </row>
-    <row r="249" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A249" s="1" t="s">
+      <c r="C248" s="12"/>
+    </row>
+    <row r="249" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="21" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
+    </row>
+    <row r="250" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A250" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B250" s="12" t="s">
         <v>1674</v>
       </c>
-      <c r="B249" s="12" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C249" s="12"/>
-    </row>
-    <row r="250" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B250" s="12" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C250" s="12" t="s">
-        <v>1701</v>
-      </c>
+      <c r="C250" s="12"/>
     </row>
     <row r="251" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B251" s="12" t="s">
-        <v>1657</v>
+        <v>1671</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="252" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="1" t="s">
+      <c r="B252" s="12" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B253" s="12" t="s">
         <v>1672</v>
       </c>
-      <c r="B252" s="12" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C252" s="12"/>
-    </row>
-    <row r="253" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B253" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C253" s="12" t="s">
-        <v>1700</v>
-      </c>
+      <c r="C253" s="12"/>
     </row>
     <row r="254" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B254" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B255" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="C254" s="12" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="1" t="s">
+      <c r="C255" s="12" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B256" s="12" t="s">
         <v>1657</v>
       </c>
-      <c r="B255" s="12" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C255" s="12"/>
-    </row>
-    <row r="256" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B256" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="C256" s="12" t="s">
-        <v>1676</v>
-      </c>
+      <c r="C256" s="12"/>
     </row>
     <row r="257" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B257" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B258" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C257" s="12" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="1" t="s">
+      <c r="C258" s="12" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B259" s="12" t="s">
         <v>1660</v>
       </c>
-      <c r="B258" s="12" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C258" s="12"/>
-    </row>
-    <row r="259" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B259" s="12" t="s">
+      <c r="C259" s="12"/>
+    </row>
+    <row r="260" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B260" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="C259" s="12" t="s">
+      <c r="C260" s="12" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B261" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C261" s="12" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B260" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C260" s="12" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B261" s="12" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C261" s="12"/>
     </row>
     <row r="262" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C262" s="12"/>
+    </row>
+    <row r="263" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B263" s="12" t="s">
         <v>1668</v>
       </c>
-      <c r="B262" s="12" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C262" s="12"/>
-    </row>
-    <row r="263" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B263" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="C263" s="12" t="s">
-        <v>1693</v>
-      </c>
+      <c r="C263" s="12"/>
     </row>
     <row r="264" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B264" s="12" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="265" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B265" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="266" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B266" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B267" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="C266" s="12" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="1" t="s">
+      <c r="C267" s="12" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B268" s="12" t="s">
         <v>1666</v>
       </c>
-      <c r="B267" s="12" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C267" s="12"/>
-    </row>
-    <row r="268" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B268" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="C268" s="12" t="s">
-        <v>1683</v>
-      </c>
+      <c r="C268" s="12"/>
     </row>
     <row r="269" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B269" s="12" t="s">
-        <v>210</v>
+        <v>481</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="270" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B270" s="12" t="s">
-        <v>661</v>
+        <v>210</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="271" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B271" s="12" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="272" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B272" s="12" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="273" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B273" s="12" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="274" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B274" s="12" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="275" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B275" s="12" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="276" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B276" s="12" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="277" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B277" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B278" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="C277" s="12" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A278" s="1" t="s">
+      <c r="C278" s="12" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B279" s="12" t="s">
         <v>1664</v>
       </c>
-      <c r="B278" s="12" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C278" s="12"/>
-    </row>
-    <row r="279" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B279" s="12" t="s">
+      <c r="C279" s="12"/>
+    </row>
+    <row r="280" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B280" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="C279" s="12" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="1" t="s">
+      <c r="C280" s="12" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B281" s="12" t="s">
         <v>1670</v>
       </c>
-      <c r="B280" s="12" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C280" s="12"/>
-    </row>
-    <row r="281" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B281" s="12">
+      <c r="C281" s="12"/>
+    </row>
+    <row r="282" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B282" s="12">
         <v>1</v>
       </c>
-      <c r="C281" s="12" t="s">
+      <c r="C282" s="12" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B283" s="12" t="s">
         <v>1697</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B282" s="12" t="s">
+      <c r="C283" s="12" t="s">
         <v>1698</v>
       </c>
-      <c r="C282" s="12" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="B283" s="35" t="s">
-        <v>1921</v>
-      </c>
-      <c r="C283" s="12"/>
-    </row>
-    <row r="284" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B284" s="12" t="s">
+    </row>
+    <row r="284" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B284" s="35" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C284" s="12"/>
+    </row>
+    <row r="285" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B285" s="12" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C285" s="12" t="s">
         <v>1678</v>
       </c>
-      <c r="C284" s="12" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="21" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B285" s="14"/>
-      <c r="C285" s="14"/>
-    </row>
-    <row r="286" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A286" s="1" t="s">
+    </row>
+    <row r="286" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="21" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B286" s="14"/>
+      <c r="C286" s="14"/>
+    </row>
+    <row r="287" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A287" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B287" s="12" t="s">
         <v>1847</v>
       </c>
-      <c r="B286" s="12" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C286" s="12"/>
-    </row>
-    <row r="287" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B287" s="12" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C287" s="12" t="s">
-        <v>1870</v>
-      </c>
+      <c r="C287" s="12"/>
     </row>
     <row r="288" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B288" s="12"/>
+      <c r="B288" s="12" t="s">
+        <v>1292</v>
+      </c>
       <c r="C288" s="12" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="289" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B289" s="12"/>
       <c r="C289" s="12" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B290" s="12"/>
+      <c r="C290" s="12" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B291" s="12" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C291" s="12" t="s">
         <v>1872</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B290" s="12" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C290" s="12" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B291" s="12"/>
-      <c r="C291" s="12" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="292" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B292" s="12"/>
       <c r="C292" s="12" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B293" s="12"/>
+      <c r="C293" s="12" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B294" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C294" s="12" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="293" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B293" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="C293" s="12" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A294" s="1" t="s">
-        <v>1861</v>
-      </c>
-      <c r="B294" s="35" t="s">
-        <v>1923</v>
-      </c>
-      <c r="C294" s="12"/>
-    </row>
-    <row r="295" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B295" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="C295" s="12" t="s">
-        <v>1889</v>
-      </c>
+    <row r="295" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A295" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B295" s="35" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C295" s="12"/>
     </row>
     <row r="296" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B296" s="12" t="s">
-        <v>849</v>
+        <v>481</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="297" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B297" s="12" t="s">
-        <v>1543</v>
+        <v>849</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="298" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B298" s="12" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A299" s="1" t="s">
-        <v>1860</v>
-      </c>
-      <c r="B299" s="35" t="s">
-        <v>1924</v>
-      </c>
-      <c r="C299" s="12"/>
-    </row>
-    <row r="300" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B300" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="C300" s="12" t="s">
-        <v>1887</v>
-      </c>
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B299" s="12" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A300" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B300" s="35" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C300" s="12"/>
     </row>
     <row r="301" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B301" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B302" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C301" s="12" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="303" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A303" s="22" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B303" s="12"/>
-      <c r="C303" s="12"/>
-    </row>
-    <row r="304" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A304" s="1" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B304" s="12" t="s">
-        <v>1452</v>
-      </c>
+      <c r="C302" s="12" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="304" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="22" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B304" s="12"/>
       <c r="C304" s="12"/>
     </row>
     <row r="305" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B305" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C305" s="12"/>
+    </row>
+    <row r="306" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A306" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B306" s="12" t="s">
         <v>1453</v>
       </c>
-      <c r="B305" s="12" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C305" s="12"/>
-    </row>
-    <row r="306" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B306" s="12" t="s">
-        <v>825</v>
-      </c>
-      <c r="C306" s="12" t="s">
-        <v>1458</v>
-      </c>
+      <c r="C306" s="12"/>
     </row>
     <row r="307" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B307" s="12" t="s">
-        <v>210</v>
+        <v>825</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="308" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B308" s="12" t="s">
-        <v>828</v>
+        <v>210</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="309" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B309" s="12" t="s">
-        <v>152</v>
+        <v>828</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="310" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B310" s="12" t="s">
-        <v>1462</v>
+        <v>152</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="311" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B311" s="12" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C311" s="12" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B312" s="12" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C312" s="12" t="s">
         <v>1464</v>
       </c>
-      <c r="C311" s="12" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A312" s="21" t="s">
+    </row>
+    <row r="313" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A313" s="21" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B313" s="26" t="s">
         <v>1933</v>
       </c>
-      <c r="B312" s="26" t="s">
-        <v>1934</v>
-      </c>
-      <c r="C312" s="14"/>
-    </row>
-    <row r="313" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A313" s="1" t="s">
+      <c r="C313" s="14"/>
+    </row>
+    <row r="314" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B314" s="12" t="s">
         <v>1514</v>
       </c>
-      <c r="B313" s="12" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C313" s="12"/>
-    </row>
-    <row r="314" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B314" s="12" t="s">
+      <c r="C314" s="12"/>
+    </row>
+    <row r="315" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B315" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C314" s="12" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A315" s="1" t="s">
+      <c r="C315" s="12" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A316" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B316" s="12" t="s">
         <v>1524</v>
       </c>
-      <c r="B315" s="12" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C315" s="12"/>
-    </row>
-    <row r="316" spans="1:3" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="B316" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C316" s="35" t="s">
-        <v>1554</v>
-      </c>
+      <c r="C316" s="12"/>
     </row>
     <row r="317" spans="1:3" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="B317" s="12" t="s">
-        <v>1526</v>
+        <v>283</v>
       </c>
       <c r="C317" s="35" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="B318" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C318" s="12" t="s">
-        <v>1552</v>
+        <v>1525</v>
+      </c>
+      <c r="C318" s="35" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="319" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B319" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C319" s="12" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B320" s="12" t="s">
         <v>1031</v>
       </c>
-      <c r="C319" s="12" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A320" s="1" t="s">
+      <c r="C320" s="12" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A321" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B321" s="12" t="s">
         <v>1510</v>
       </c>
-      <c r="B320" s="12" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C320" s="12"/>
-    </row>
-    <row r="321" spans="1:3" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="B321" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C321" s="35" t="s">
-        <v>1530</v>
-      </c>
+      <c r="C321" s="12"/>
     </row>
     <row r="322" spans="1:3" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="B322" s="12" t="s">
-        <v>1526</v>
+        <v>283</v>
       </c>
       <c r="C322" s="35" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="B323" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C323" s="12" t="s">
-        <v>1527</v>
+        <v>1525</v>
+      </c>
+      <c r="C323" s="35" t="s">
+        <v>1530</v>
       </c>
     </row>
     <row r="324" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B324" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B325" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="C324" s="12" t="s">
+      <c r="C325" s="12" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B326" s="12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C326" s="12" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="325" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B325" s="12" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C325" s="12" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A326" s="1" t="s">
+    <row r="327" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B327" s="12" t="s">
         <v>1522</v>
       </c>
-      <c r="B326" s="12" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C326" s="12"/>
-    </row>
-    <row r="327" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B327" s="12" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C327" s="12" t="s">
-        <v>1544</v>
-      </c>
+      <c r="C327" s="12"/>
     </row>
     <row r="328" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B328" s="12" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="329" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B329" s="12" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="330" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B330" s="12" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="331" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B331" s="12" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C331" s="12" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B332" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C331" s="12" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B332" s="28"/>
-      <c r="C332" s="28"/>
-    </row>
-    <row r="333" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A333" s="21" t="s">
+      <c r="C332" s="12" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B333" s="28"/>
+      <c r="C333" s="28"/>
+    </row>
+    <row r="334" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A334" s="21" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B334" s="14"/>
+      <c r="C334" s="14"/>
+    </row>
+    <row r="335" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A335" t="s">
         <v>1713</v>
       </c>
-      <c r="B333" s="14"/>
-      <c r="C333" s="14"/>
-    </row>
-    <row r="334" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A334" t="s">
+      <c r="B335" s="9" t="s">
         <v>1714</v>
       </c>
-      <c r="B334" s="9" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C334" s="9"/>
-    </row>
-    <row r="335" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A335"/>
-      <c r="B335" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="C335" s="9" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C335" s="9"/>
+    </row>
+    <row r="336" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A336"/>
       <c r="B336" s="9" t="s">
-        <v>1736</v>
+        <v>481</v>
       </c>
       <c r="C336" s="9" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="337" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A337"/>
       <c r="B337" s="9" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="C337" s="9" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="338" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A338"/>
       <c r="B338" s="9" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C338" s="9"/>
+        <v>1737</v>
+      </c>
+      <c r="C338" s="9" t="s">
+        <v>1738</v>
+      </c>
     </row>
     <row r="339" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A339"/>
       <c r="B339" s="9" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C339" s="9"/>
     </row>
     <row r="340" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A340" t="s">
+      <c r="A340"/>
+      <c r="B340" s="9" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C340" s="9"/>
+    </row>
+    <row r="341" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A341" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B341" s="9" t="s">
         <v>1716</v>
       </c>
-      <c r="B340" s="9" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C340" s="9"/>
-    </row>
-    <row r="341" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A341"/>
-      <c r="B341" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="C341" s="9" t="s">
-        <v>1742</v>
-      </c>
+      <c r="C341" s="9"/>
     </row>
     <row r="342" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A342"/>
       <c r="B342" s="9" t="s">
-        <v>283</v>
+        <v>481</v>
       </c>
       <c r="C342" s="9" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="343" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A343"/>
       <c r="B343" s="9" t="s">
-        <v>1526</v>
+        <v>283</v>
       </c>
       <c r="C343" s="9" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="344" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A344"/>
       <c r="B344" s="9" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C344" s="9"/>
+        <v>1525</v>
+      </c>
+      <c r="C344" s="9" t="s">
+        <v>1743</v>
+      </c>
     </row>
     <row r="345" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A345"/>
       <c r="B345" s="9" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="C345" s="9"/>
     </row>
-    <row r="346" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A346" s="20" t="s">
-        <v>1900</v>
-      </c>
+    <row r="346" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A346"/>
       <c r="B346" s="9" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C346" s="12"/>
+        <v>1744</v>
+      </c>
+      <c r="C346" s="9"/>
     </row>
     <row r="347" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A347" t="s">
+      <c r="A347" s="20" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B347" s="9" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C347" s="12"/>
+    </row>
+    <row r="348" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A348" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B348" s="9" t="s">
         <v>1721</v>
       </c>
-      <c r="B347" s="9" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C347" s="9"/>
-    </row>
-    <row r="348" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A348"/>
-      <c r="B348" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C348" s="9" t="s">
-        <v>1750</v>
-      </c>
+      <c r="C348" s="9"/>
     </row>
     <row r="349" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A349"/>
       <c r="B349" s="9" t="s">
-        <v>481</v>
+        <v>152</v>
       </c>
       <c r="C349" s="9" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="350" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A350"/>
       <c r="B350" s="9" t="s">
-        <v>1752</v>
+        <v>481</v>
       </c>
       <c r="C350" s="9" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="351" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A351"/>
       <c r="B351" s="9" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="C351" s="9" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A352"/>
       <c r="B352" s="9" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="C352" s="9" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="353" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A353"/>
       <c r="B353" s="9" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="C353" s="9" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A354"/>
       <c r="B354" s="9" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C354" s="9" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A355"/>
+      <c r="B355" s="9" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C355" s="9" t="s">
         <v>1760</v>
       </c>
-      <c r="C354" s="9" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A355" t="s">
+    </row>
+    <row r="356" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A356" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B356" s="9" t="s">
         <v>1719</v>
       </c>
-      <c r="B355" s="9" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C355" s="9"/>
-    </row>
-    <row r="356" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A356"/>
-      <c r="B356" s="9" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C356" s="9" t="s">
-        <v>1747</v>
-      </c>
+      <c r="C356" s="9"/>
     </row>
     <row r="357" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A357"/>
       <c r="B357" s="9" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C357" s="9" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A358"/>
+      <c r="B358" s="9" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C358" s="9" t="s">
         <v>1748</v>
       </c>
-      <c r="C357" s="9" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A358" t="s">
+    </row>
+    <row r="359" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A359" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B359" s="9" t="s">
         <v>1723</v>
       </c>
-      <c r="B358" s="9" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C358" s="9"/>
-    </row>
-    <row r="359" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A359"/>
-      <c r="B359" s="9" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C359" s="9" t="s">
-        <v>1763</v>
-      </c>
+      <c r="C359" s="9"/>
     </row>
     <row r="360" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A360"/>
       <c r="B360" s="9" t="s">
-        <v>1442</v>
+        <v>1761</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="361" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A361"/>
       <c r="B361" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C361" s="9" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A362"/>
+      <c r="B362" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C361" s="9" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A362" t="s">
+      <c r="C362" s="9" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A363" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B363" s="9" t="s">
         <v>1729</v>
       </c>
-      <c r="B362" s="9" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C362" s="9"/>
-    </row>
-    <row r="363" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A363"/>
-      <c r="B363" s="9" t="s">
+      <c r="C363" s="9"/>
+    </row>
+    <row r="364" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A364"/>
+      <c r="B364" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C363" s="9" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B364" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="C364" s="12" t="s">
-        <v>1774</v>
+      <c r="C364" s="9" t="s">
+        <v>1772</v>
       </c>
     </row>
     <row r="365" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B365" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B366" s="12" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C366" s="12" t="s">
         <v>1775</v>
       </c>
-      <c r="C365" s="12" t="s">
+    </row>
+    <row r="367" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B367" s="12" t="s">
         <v>1776</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B366" s="12" t="s">
+      <c r="C367" s="12" t="s">
         <v>1777</v>
       </c>
-      <c r="C366" s="12" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A367" s="21" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B367" s="14"/>
-      <c r="C367" s="14"/>
     </row>
     <row r="368" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A368" s="1" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B368" s="12" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C368" s="12"/>
+      <c r="A368" s="21" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B368" s="14"/>
+      <c r="C368" s="14"/>
     </row>
     <row r="369" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="B369" s="12" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="C369" s="12"/>
     </row>
     <row r="370" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B370" s="12" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C370" s="12"/>
+    </row>
+    <row r="371" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B371" s="12" t="s">
         <v>1488</v>
       </c>
-      <c r="B370" s="12" t="s">
+      <c r="C371" s="12"/>
+    </row>
+    <row r="372" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A372" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="C370" s="12"/>
-    </row>
-    <row r="371" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A371" s="1" t="s">
+      <c r="B372" s="12" t="s">
         <v>1490</v>
-      </c>
-      <c r="B371" s="12" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C371" s="12"/>
-    </row>
-    <row r="372" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A372" s="1" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B372" s="12" t="s">
-        <v>1493</v>
       </c>
       <c r="C372" s="12"/>
     </row>
     <row r="373" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="C373" s="12"/>
     </row>
     <row r="374" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="B374" s="12" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="C374" s="12"/>
     </row>
     <row r="375" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B375" s="12" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C375" s="12"/>
+    </row>
+    <row r="376" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B376" s="12" t="s">
         <v>1498</v>
-      </c>
-      <c r="B375" s="12" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C375" s="12"/>
-    </row>
-    <row r="376" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A376" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B376" s="12" t="s">
-        <v>1501</v>
       </c>
       <c r="C376" s="12"/>
     </row>
     <row r="377" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B377" s="12" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C377" s="12"/>
+    </row>
+    <row r="378" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A378" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B378" s="12" t="s">
         <v>1502</v>
-      </c>
-      <c r="B377" s="12" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C377" s="12"/>
-    </row>
-    <row r="378" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A378" s="1" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B378" s="12" t="s">
-        <v>1505</v>
       </c>
       <c r="C378" s="12"/>
     </row>
     <row r="379" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="B379" s="12" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C379" s="12"/>
     </row>
     <row r="380" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B380" s="12"/>
+        <v>1505</v>
+      </c>
+      <c r="B380" s="12" t="s">
+        <v>1506</v>
+      </c>
       <c r="C380" s="12"/>
     </row>
     <row r="381" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A381" s="21" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B381" s="14"/>
-      <c r="C381" s="14"/>
-    </row>
-    <row r="382" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A382" s="1" t="s">
-        <v>1601</v>
-      </c>
-      <c r="B382" s="12" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C382" s="12"/>
+      <c r="A381" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B381" s="12"/>
+      <c r="C381" s="12"/>
+    </row>
+    <row r="382" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="21" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B382" s="14"/>
+      <c r="C382" s="14"/>
     </row>
     <row r="383" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B383" s="12" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="C383" s="12"/>
     </row>
     <row r="384" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B384" s="12" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C384" s="12"/>
+    </row>
+    <row r="385" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A385" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B385" s="12" t="s">
         <v>1605</v>
       </c>
-      <c r="B384" s="12" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C384" s="12"/>
-    </row>
-    <row r="385" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B385" s="12"/>
       <c r="C385" s="12"/>
     </row>
     <row r="386" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A386" s="22" t="s">
-        <v>1607</v>
-      </c>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
     </row>
     <row r="387" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A387" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B387" s="12" t="s">
-        <v>1609</v>
-      </c>
+      <c r="A387" s="22" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B387" s="12"/>
       <c r="C387" s="12"/>
     </row>
     <row r="388" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B388" s="12" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C388" s="12"/>
+    </row>
+    <row r="389" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B389" s="12" t="s">
         <v>1610</v>
       </c>
-      <c r="B388" s="12" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C388" s="12"/>
-    </row>
-    <row r="389" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B389" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="C389" s="35" t="s">
-        <v>1612</v>
-      </c>
+      <c r="C389" s="12"/>
     </row>
     <row r="390" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B390" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="C390" s="35" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B391" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="C390" s="35" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B391" s="35" t="s">
-        <v>481</v>
-      </c>
-      <c r="C391" s="12"/>
+      <c r="C391" s="35" t="s">
+        <v>1612</v>
+      </c>
     </row>
     <row r="392" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B392" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="C392" s="12"/>
+    </row>
+    <row r="393" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B393" s="35" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="393" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A393" s="21" t="s">
+    <row r="394" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="21" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B394" s="14"/>
+      <c r="C394" s="14"/>
+    </row>
+    <row r="395" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A395" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B395" s="12" t="s">
         <v>1614</v>
       </c>
-      <c r="B393" s="14"/>
-      <c r="C393" s="14"/>
-    </row>
-    <row r="394" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A394" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B394" s="12" t="s">
+      <c r="C395" s="12"/>
+    </row>
+    <row r="396" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="C394" s="12"/>
-    </row>
-    <row r="395" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A395" s="1" t="s">
+      <c r="B396" s="12" t="s">
         <v>1616</v>
       </c>
-      <c r="B395" s="12" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C395" s="12"/>
-    </row>
-    <row r="396" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B396" s="12" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C396" s="12" t="s">
-        <v>1636</v>
-      </c>
+      <c r="C396" s="12"/>
     </row>
     <row r="397" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B397" s="12" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C397" s="12" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B398" s="12" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C398" s="12" t="s">
         <v>1637</v>
       </c>
-      <c r="C397" s="12" t="s">
+    </row>
+    <row r="399" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B399" s="12" t="s">
         <v>1638</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B398" s="12" t="s">
+      <c r="C399" s="12" t="s">
         <v>1639</v>
-      </c>
-      <c r="C398" s="12" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B399" s="12" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C399" s="12" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="400" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B400" s="12" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="C400" s="12" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="401" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B401" s="12" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C401" s="12" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B402" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C401" s="12" t="s">
+      <c r="C402" s="12" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B403" s="12"/>
+      <c r="C403" s="12" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="402" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B402" s="12"/>
-      <c r="C402" s="12" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A403" s="1" t="s">
+    <row r="404" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A404" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B404" s="12" t="s">
         <v>1618</v>
       </c>
-      <c r="B403" s="12" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C403" s="12"/>
-    </row>
-    <row r="404" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B404" s="12" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C404" s="12" t="s">
-        <v>1631</v>
-      </c>
+      <c r="C404" s="12"/>
     </row>
     <row r="405" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B405" s="12" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C405" s="12" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="406" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B406" s="12" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C406" s="12" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B407" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="C406" s="12" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A407" s="1" t="s">
+      <c r="C407" s="12" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B408" s="12" t="s">
         <v>1620</v>
       </c>
-      <c r="B407" s="12" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C407" s="12"/>
-    </row>
-    <row r="408" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B408" s="12" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C408" s="12" t="s">
-        <v>1623</v>
-      </c>
+      <c r="C408" s="12"/>
     </row>
     <row r="409" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B409" s="12" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C409" s="12" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B410" s="12" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C410" s="12" t="s">
         <v>1624</v>
-      </c>
-      <c r="C409" s="12" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B410" s="12" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C410" s="12" t="s">
-        <v>1627</v>
       </c>
     </row>
     <row r="411" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B411" s="12" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C411" s="12" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B412" s="12" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C412" s="12" t="s">
         <v>1628</v>
       </c>
-      <c r="C411" s="12" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A412" s="21" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B412" s="14"/>
-      <c r="C412" s="14"/>
     </row>
     <row r="413" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A413" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B413" s="12" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C413" s="12"/>
+      <c r="A413" s="21" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B413" s="14"/>
+      <c r="C413" s="14"/>
     </row>
     <row r="414" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="C414" s="12"/>
     </row>
     <row r="415" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="C415" s="12"/>
     </row>
     <row r="416" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B416" s="12" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C416" s="12"/>
+    </row>
+    <row r="417" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B417" s="12" t="s">
         <v>1654</v>
       </c>
-      <c r="B416" s="12" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C416" s="12"/>
-    </row>
-    <row r="417" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A417" s="21" t="s">
+      <c r="C417" s="12"/>
+    </row>
+    <row r="418" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="21" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B418" s="14"/>
+      <c r="C418" s="14"/>
+      <c r="D418" s="5"/>
+    </row>
+    <row r="419" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="36" t="s">
         <v>1901</v>
       </c>
-      <c r="B417" s="14"/>
-      <c r="C417" s="14"/>
-      <c r="D417" s="5"/>
-    </row>
-    <row r="418" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A418" s="36" t="s">
+      <c r="B419" s="35" t="s">
         <v>1902</v>
       </c>
-      <c r="B418" s="35" t="s">
-        <v>1903</v>
-      </c>
-      <c r="C418" s="12"/>
-    </row>
-    <row r="419" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B419" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="C419" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>1904</v>
-      </c>
+      <c r="C419" s="12"/>
     </row>
     <row r="420" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B420" s="12" t="s">
-        <v>157</v>
+        <v>527</v>
       </c>
       <c r="C420" s="12" t="s">
-        <v>1101</v>
+        <v>7</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="421" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B421" s="12" t="s">
-        <v>1906</v>
+        <v>157</v>
       </c>
       <c r="C421" s="12" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B422" s="12" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C422" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="D421" s="1" t="s">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B422" s="12"/>
-      <c r="C422" s="12" t="s">
-        <v>1907</v>
+      <c r="D422" s="1" t="s">
+        <v>1914</v>
       </c>
     </row>
     <row r="423" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B423" s="12"/>
       <c r="C423" s="12" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="424" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B424" s="12"/>
       <c r="C424" s="12" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="425" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B425" s="12"/>
       <c r="C425" s="12" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="426" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B426" s="12"/>
       <c r="C426" s="12" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="427" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B427" s="12"/>
       <c r="C427" s="12" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="428" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B428" s="12"/>
       <c r="C428" s="12" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="429" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B429" s="12"/>
       <c r="C429" s="12" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="430" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B430" s="12"/>
-      <c r="C430" s="12"/>
+      <c r="C430" s="12" t="s">
+        <v>1913</v>
+      </c>
     </row>
     <row r="431" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B431" s="12" t="s">
+      <c r="B431" s="12"/>
+      <c r="C431" s="12"/>
+    </row>
+    <row r="432" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B432" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="C431" s="12" t="s">
+      <c r="C432" s="12" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D432" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="D431" s="1" t="s">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B432" s="12"/>
-      <c r="C432" s="12" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="433" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B433" s="12"/>
       <c r="C433" s="12" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="434" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B434" s="12"/>
+      <c r="C434" s="12" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="434" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B434" s="12"/>
-      <c r="C434" s="12"/>
-    </row>
-    <row r="435" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B435" s="12" t="s">
+    <row r="435" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B435" s="12"/>
+      <c r="C435" s="12"/>
+    </row>
+    <row r="436" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B436" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="C435" s="12" t="s">
+      <c r="C436" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="D435" s="1" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B436" s="12"/>
-      <c r="C436" s="12" t="s">
+      <c r="D436" s="1" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="437" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B437" s="12"/>
+      <c r="C437" s="12" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="437" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B437" s="12"/>
-      <c r="C437" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B438" s="12"/>
       <c r="C438" s="12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="439" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B439" s="12"/>
       <c r="C439" s="12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="440" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B440" s="12"/>
       <c r="C440" s="12">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="441" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B441" s="12"/>
       <c r="C441" s="12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="442" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B442" s="12"/>
       <c r="C442" s="12">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="443" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B443" s="12"/>
       <c r="C443" s="12">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="444" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B444" s="12"/>
       <c r="C444" s="12">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="445" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B445" s="12"/>
       <c r="C445" s="12">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="446" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B446" s="12"/>
+      <c r="C446" s="12">
         <v>900</v>
       </c>
     </row>
-    <row r="446" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B446" s="12"/>
-      <c r="C446" s="12"/>
-    </row>
-    <row r="447" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B447" s="12" t="s">
+    <row r="447" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B447" s="12"/>
+      <c r="C447" s="12"/>
+    </row>
+    <row r="448" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B448" s="12" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C448" s="12" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D448" s="22" t="s">
         <v>1919</v>
       </c>
-      <c r="C447" s="12" t="s">
-        <v>1919</v>
-      </c>
-      <c r="D447" s="22" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A448" s="21" t="s">
+    </row>
+    <row r="449" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="21" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B449" s="14"/>
+      <c r="C449" s="14"/>
+      <c r="D449" s="5"/>
+    </row>
+    <row r="450" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A450" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="B448" s="14"/>
-      <c r="C448" s="14"/>
-      <c r="D448" s="5"/>
-    </row>
-    <row r="449" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A449" s="1" t="s">
+      <c r="B450" s="12" t="s">
         <v>1704</v>
-      </c>
-      <c r="B449" s="12" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C449" s="12"/>
-    </row>
-    <row r="450" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A450" s="1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B450" s="12" t="s">
-        <v>1707</v>
       </c>
       <c r="C450" s="12"/>
     </row>
     <row r="451" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="B451" s="12" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="C451" s="12"/>
     </row>
     <row r="452" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="B452" s="12" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="C452" s="12"/>
     </row>
     <row r="453" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B453" s="12" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C453" s="12"/>
+    </row>
+    <row r="454" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A454" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B453" s="12" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C453" s="12"/>
-    </row>
-    <row r="454" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A454" s="29" t="s">
-        <v>1922</v>
-      </c>
-      <c r="B454" s="14"/>
-      <c r="C454" s="14"/>
-      <c r="D454" s="5"/>
+      <c r="B454" s="12" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C454" s="12"/>
     </row>
     <row r="455" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="29" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B455" s="14"/>
+      <c r="C455" s="14"/>
+      <c r="D455" s="5"/>
+    </row>
+    <row r="456" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A456" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B456" s="12" t="s">
         <v>1845</v>
       </c>
-      <c r="B455" s="12" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C455" s="12"/>
-    </row>
-    <row r="456" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B456" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C456" s="12" t="s">
-        <v>1862</v>
-      </c>
+      <c r="C456" s="12"/>
     </row>
     <row r="457" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B457" s="12" t="s">
-        <v>1051</v>
+        <v>467</v>
       </c>
       <c r="C457" s="12" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="458" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B458" s="12" t="s">
-        <v>1630</v>
+        <v>1051</v>
       </c>
       <c r="C458" s="12" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="459" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B459" s="12" t="s">
-        <v>207</v>
+        <v>1629</v>
       </c>
       <c r="C459" s="12" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="460" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B460" s="12" t="s">
-        <v>1866</v>
+        <v>207</v>
       </c>
       <c r="C460" s="12" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="461" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B461" s="12" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C461" s="12" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B462" s="12" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C462" s="12" t="s">
         <v>1868</v>
       </c>
-      <c r="C461" s="12" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A462" s="1" t="s">
+    </row>
+    <row r="463" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A463" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B462" s="12" t="s">
-        <v>1849</v>
-      </c>
-      <c r="C462" s="12"/>
-    </row>
-    <row r="463" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B463" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C463" s="12" t="s">
-        <v>1877</v>
-      </c>
+        <v>1848</v>
+      </c>
+      <c r="C463" s="12"/>
     </row>
     <row r="464" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B464" s="12" t="s">
-        <v>1101</v>
+        <v>152</v>
       </c>
       <c r="C464" s="12" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="465" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B465" s="12" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C465" s="12" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B466" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C465" s="12" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A466" s="1" t="s">
+      <c r="C466" s="12" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A467" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B467" s="12" t="s">
         <v>1858</v>
-      </c>
-      <c r="B466" s="12" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C466" s="12"/>
-    </row>
-    <row r="467" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A467" s="1" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B467" s="12" t="s">
-        <v>1851</v>
       </c>
       <c r="C467" s="12"/>
     </row>
     <row r="468" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
-        <v>1854</v>
+        <v>1849</v>
       </c>
       <c r="B468" s="12" t="s">
-        <v>1855</v>
+        <v>1850</v>
       </c>
       <c r="C468" s="12"/>
     </row>
     <row r="469" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B469" s="12" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C469" s="12"/>
+    </row>
+    <row r="470" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A470" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B470" s="12" t="s">
         <v>1856</v>
       </c>
-      <c r="B469" s="12" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C469" s="12"/>
-    </row>
-    <row r="470" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B470" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C470" s="12" t="s">
-        <v>1880</v>
-      </c>
+      <c r="C470" s="12"/>
     </row>
     <row r="471" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B471" s="12" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C471" s="12" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="472" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B472" s="12" t="s">
-        <v>1616</v>
+        <v>92</v>
       </c>
       <c r="C472" s="12" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="473" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B473" s="12" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C473" s="12" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B474" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C473" s="12" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A474" s="1" t="s">
+      <c r="C474" s="12" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A475" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B475" s="12" t="s">
         <v>1852</v>
       </c>
-      <c r="B474" s="12" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C474" s="12"/>
-    </row>
-    <row r="475" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B475" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C475" s="12" t="s">
-        <v>1884</v>
-      </c>
+      <c r="C475" s="12"/>
     </row>
     <row r="476" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B476" s="12" t="s">
-        <v>402</v>
+        <v>152</v>
       </c>
       <c r="C476" s="12" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="477" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B477" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C477" s="12" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B478" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C477" s="12" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A478" s="5" t="s">
+      <c r="C478" s="12" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A479" s="5" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B479" s="14"/>
+      <c r="C479" s="14"/>
+      <c r="D479" s="5"/>
+    </row>
+    <row r="480" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A480" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B480" s="35" t="s">
         <v>1925</v>
-      </c>
-      <c r="B478" s="14"/>
-      <c r="C478" s="14"/>
-      <c r="D478" s="5"/>
-    </row>
-    <row r="479" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A479" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B479" s="35" t="s">
-        <v>1926</v>
-      </c>
-      <c r="C479" s="12"/>
-    </row>
-    <row r="480" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B480" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="C480" s="12"/>
     </row>
     <row r="481" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B481" s="12" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C481" s="12" t="s">
-        <v>1467</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C481" s="12"/>
     </row>
     <row r="482" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B482" s="12" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C482" s="12" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B483" s="12" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C483" s="12"/>
+    </row>
+    <row r="484" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B484" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="C484" s="12" t="s">
         <v>1468</v>
       </c>
-      <c r="C482" s="12"/>
-    </row>
-    <row r="483" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B483" s="12" t="s">
-        <v>942</v>
-      </c>
-      <c r="C483" s="12" t="s">
+    </row>
+    <row r="485" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B485" s="12" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B484" s="12" t="s">
+      <c r="C485" s="12" t="s">
         <v>1470</v>
       </c>
-      <c r="C484" s="12" t="s">
+    </row>
+    <row r="486" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A486" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B486" s="35" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C486" s="12"/>
+    </row>
+    <row r="487" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B487" s="12" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A485" s="1" t="s">
+      <c r="C487" s="12" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A488" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="B485" s="35" t="s">
+      <c r="B488" s="35" t="s">
         <v>1927</v>
       </c>
-      <c r="C485" s="12"/>
-    </row>
-    <row r="486" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B486" s="12" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C486" s="12" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A487" s="1" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B487" s="35" t="s">
-        <v>1928</v>
-      </c>
-      <c r="C487" s="12"/>
-    </row>
-    <row r="488" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B488" s="12" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C488" s="12" t="s">
-        <v>1483</v>
-      </c>
+      <c r="C488" s="12"/>
     </row>
     <row r="489" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B489" s="12" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C489" s="12"/>
+        <v>1473</v>
+      </c>
+      <c r="C489" s="12" t="s">
+        <v>1482</v>
+      </c>
     </row>
     <row r="490" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B490" s="12" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="C490" s="12"/>
     </row>
     <row r="491" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B491" s="12" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="C491" s="12"/>
     </row>
     <row r="492" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B492" s="12" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="C492" s="12"/>
     </row>
     <row r="493" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B493" s="12" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C493" s="12"/>
     </row>
     <row r="494" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B494" s="12" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="C494" s="12"/>
     </row>
     <row r="495" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B495" s="12" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C495" s="12"/>
     </row>
     <row r="496" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B496" s="12" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C496" s="12"/>
     </row>
     <row r="497" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A497" s="21" t="s">
-        <v>1933</v>
-      </c>
-      <c r="B497" s="14"/>
-      <c r="C497" s="14"/>
-      <c r="D497" s="5"/>
+      <c r="B497" s="12" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C497" s="12"/>
     </row>
     <row r="498" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A498" s="1" t="s">
+      <c r="A498" s="21" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B498" s="14"/>
+      <c r="C498" s="14"/>
+      <c r="D498" s="5"/>
+    </row>
+    <row r="499" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A499" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B499" s="12" t="s">
         <v>1512</v>
       </c>
-      <c r="B498" s="12" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C498" s="12"/>
-    </row>
-    <row r="499" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B499" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C499" s="12" t="s">
-        <v>1532</v>
-      </c>
+      <c r="C499" s="12"/>
     </row>
     <row r="500" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B500" s="12" t="s">
-        <v>1533</v>
+        <v>467</v>
       </c>
       <c r="C500" s="12" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="501" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B501" s="12" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C501" s="12" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B502" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C501" s="12" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="C502" s="12" t="s">
+        <v>1534</v>
+      </c>
+    </row>
     <row r="503" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="504" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A504" s="1" t="s">
+    <row r="504" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="505" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A505" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B505" s="12" t="s">
         <v>1516</v>
       </c>
-      <c r="B504" s="12" t="s">
+      <c r="C505" s="12"/>
+    </row>
+    <row r="506" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B506" s="12" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C506" s="12" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A507" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="C504" s="12"/>
-    </row>
-    <row r="505" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B505" s="12" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C505" s="12" t="s">
+      <c r="B507" s="12" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C507" s="12"/>
+    </row>
+    <row r="508" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B508" s="12" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A506" s="1" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B506" s="12" t="s">
+      <c r="C508" s="12" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B509" s="12" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C509" s="12" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A510" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="C506" s="12"/>
-    </row>
-    <row r="507" spans="1:4" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B507" s="12" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C507" s="12" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B508" s="12" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C508" s="12" t="s">
+      <c r="B510" s="12" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C510" s="12"/>
+    </row>
+    <row r="511" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B511" s="12" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C511" s="12" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="509" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A509" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B509" s="12" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C509" s="12"/>
-    </row>
-    <row r="510" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B510" s="12" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C510" s="12" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="512" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="513" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="514" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -23166,9 +23242,10 @@
     <row r="519" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="520" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="521" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="522" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B522" s="12"/>
-      <c r="C522" s="12"/>
+    <row r="522" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="523" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B523" s="12"/>
+      <c r="C523" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23197,106 +23274,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="33" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="33" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>2088</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>2089</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>2071</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>2072</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -23427,62 +23504,62 @@
     </row>
     <row r="5" spans="1:1" ht="42" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="60" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
@@ -23542,54 +23619,54 @@
         <v>1006</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>2298</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2299</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>2295</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>2296</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -23597,43 +23674,43 @@
         <v>1095</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>2307</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>2308</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>2303</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>2304</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>2305</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>2306</v>
-      </c>
       <c r="C9" s="8" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
   </sheetData>
